--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2638232.833338916</v>
+        <v>-2638879.8058801</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>57.67900616287457</v>
       </c>
       <c r="F11" t="n">
-        <v>60.24410049029188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.565094327417439</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087824</v>
+        <v>6.191472723087853</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964391</v>
+        <v>13.45870707964394</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998883</v>
+        <v>31.53932278998886</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362279</v>
+        <v>0.4251038644362559</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938136</v>
+        <v>9.028675106938165</v>
       </c>
       <c r="U13" t="n">
-        <v>67.5913472788246</v>
+        <v>67.59134727882463</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692794</v>
+        <v>34.48632710692797</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740432</v>
+        <v>67.64255292740435</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298044</v>
+        <v>7.690335972298072</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570102</v>
+        <v>0.2986499077570386</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.24410049029191</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>60.24410049029206</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087881</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964397</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998889</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362564</v>
+        <v>0.4251038644362843</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938165</v>
+        <v>9.028675106938193</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882466</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692797</v>
+        <v>34.486327106928</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740438</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298101</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.298649907757067</v>
       </c>
     </row>
     <row r="17">
@@ -2084,7 +2084,7 @@
         <v>16.45497867838804</v>
       </c>
       <c r="D20" t="n">
-        <v>6.074615754043805</v>
+        <v>6.074615754043925</v>
       </c>
       <c r="E20" t="n">
         <v>32.58791875473287</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C26" t="n">
         <v>145.969977391514</v>
@@ -2561,16 +2561,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E26" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F26" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V26" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W26" t="n">
         <v>129.514998713126</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V27" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W27" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520738</v>
+        <v>6.463580779520766</v>
       </c>
       <c r="U28" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V28" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W28" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X28" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G29" t="n">
-        <v>193.3941876283403</v>
+        <v>193.3941876283402</v>
       </c>
       <c r="H29" t="n">
         <v>112.566723118609</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039665</v>
+        <v>162.7012917039664</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678589</v>
+        <v>162.1029174678588</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931123</v>
+        <v>186.2787451931122</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.5667231186091</v>
+        <v>112.566723118609</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007088</v>
+        <v>30.42700853007085</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350908</v>
+        <v>107.5181032350907</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670455</v>
+        <v>3.626378395670427</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222655</v>
+        <v>10.89361275222652</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257146</v>
+        <v>28.97422846257143</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520766</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U34" t="n">
-        <v>65.02625295140723</v>
+        <v>65.0262529514072</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951058</v>
+        <v>31.92123277951055</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998695</v>
+        <v>65.07745859998693</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880674</v>
+        <v>5.125241644880646</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C35" t="n">
         <v>123.8503791869722</v>
@@ -3272,16 +3272,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E35" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F35" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G35" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W35" t="n">
         <v>107.3954005085842</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C38" t="n">
         <v>123.8503791869722</v>
@@ -3509,16 +3509,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E38" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F38" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W38" t="n">
         <v>107.3954005085842</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.4122938753706</v>
+        <v>132.8212895042421</v>
       </c>
       <c r="C11" t="n">
-        <v>135.4122938753706</v>
+        <v>132.8212895042421</v>
       </c>
       <c r="D11" t="n">
-        <v>135.4122938753706</v>
+        <v>132.8212895042421</v>
       </c>
       <c r="E11" t="n">
-        <v>135.4122938753706</v>
+        <v>74.55966711750014</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711750001</v>
+        <v>74.55966711750014</v>
       </c>
       <c r="G11" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H11" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I11" t="n">
-        <v>5.47176207904559</v>
+        <v>35.56706215439191</v>
       </c>
       <c r="J11" t="n">
-        <v>5.47176207904559</v>
+        <v>35.56706215439191</v>
       </c>
       <c r="K11" t="n">
-        <v>5.47176207904559</v>
+        <v>95.4883333346659</v>
       </c>
       <c r="L11" t="n">
-        <v>30.47099128414442</v>
+        <v>95.4883333346659</v>
       </c>
       <c r="M11" t="n">
-        <v>30.47099128414442</v>
+        <v>95.4883333346659</v>
       </c>
       <c r="N11" t="n">
-        <v>98.18404701233359</v>
+        <v>149.3901187608439</v>
       </c>
       <c r="O11" t="n">
-        <v>165.8971027405228</v>
+        <v>149.3901187608439</v>
       </c>
       <c r="P11" t="n">
-        <v>165.8971027405228</v>
+        <v>205.8750482240906</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2056264681702</v>
+        <v>205.8750482240906</v>
       </c>
       <c r="R11" t="n">
-        <v>251.0794834347998</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522795</v>
+        <v>270.9970995811512</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522795</v>
+        <v>270.9970995811512</v>
       </c>
       <c r="V11" t="n">
-        <v>273.5881039522795</v>
+        <v>201.9091945426966</v>
       </c>
       <c r="W11" t="n">
-        <v>273.5881039522795</v>
+        <v>201.9091945426966</v>
       </c>
       <c r="X11" t="n">
-        <v>273.5881039522795</v>
+        <v>132.8212895042421</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.500198913825</v>
+        <v>132.8212895042421</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K12" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="L12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="M12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="N12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="O12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452091</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291705</v>
+        <v>50.92431750291712</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711512</v>
+        <v>37.32966388711515</v>
       </c>
       <c r="W12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.45443122367972</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C13" t="n">
-        <v>43.45443122367972</v>
+        <v>56.07409839756635</v>
       </c>
       <c r="D13" t="n">
-        <v>76.55958349728283</v>
+        <v>68.80564516315157</v>
       </c>
       <c r="E13" t="n">
-        <v>76.55958349728283</v>
+        <v>68.80564516315157</v>
       </c>
       <c r="F13" t="n">
-        <v>144.272639225472</v>
+        <v>68.80564516315157</v>
       </c>
       <c r="G13" t="n">
-        <v>194.5252895180217</v>
+        <v>68.80564516315157</v>
       </c>
       <c r="H13" t="n">
-        <v>194.5252895180217</v>
+        <v>126.8122337898325</v>
       </c>
       <c r="I13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="J13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="K13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="L13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="M13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="N13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="O13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751568</v>
+        <v>194.0958916751569</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297647</v>
+        <v>184.9760178297648</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693358</v>
+        <v>116.7019296693359</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395405</v>
+        <v>81.86725582395414</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617191</v>
+        <v>13.54144478617197</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537519</v>
+        <v>5.773428652537556</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.6475721559544</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6475721559544</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="D14" t="n">
-        <v>143.6475721559544</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="E14" t="n">
-        <v>143.6475721559544</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="F14" t="n">
-        <v>143.6475721559544</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="G14" t="n">
-        <v>74.55966711750001</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="H14" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I14" t="n">
-        <v>5.47176207904559</v>
+        <v>35.56706215439188</v>
       </c>
       <c r="J14" t="n">
-        <v>73.18481780723477</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="K14" t="n">
-        <v>73.18481780723477</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="L14" t="n">
-        <v>73.18481780723477</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="M14" t="n">
-        <v>98.18404701233368</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="N14" t="n">
-        <v>98.18404701233368</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="O14" t="n">
-        <v>165.8971027405229</v>
+        <v>170.9931736107704</v>
       </c>
       <c r="P14" t="n">
-        <v>165.8971027405229</v>
+        <v>188.405723258003</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2056264681703</v>
+        <v>237.7142469856504</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834347999</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="T14" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="U14" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="V14" t="n">
-        <v>273.5881039522795</v>
+        <v>204.5001989138254</v>
       </c>
       <c r="W14" t="n">
-        <v>273.5881039522795</v>
+        <v>204.5001989138254</v>
       </c>
       <c r="X14" t="n">
-        <v>273.5881039522795</v>
+        <v>143.6475721559547</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.500198913825</v>
+        <v>74.55966711750013</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="I15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="J15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="K15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="L15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="M15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="N15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="O15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="P15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.47176207904559</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291718</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711518</v>
       </c>
       <c r="W15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E16" t="n">
-        <v>5.47176207904559</v>
+        <v>8.846527769093882</v>
       </c>
       <c r="F16" t="n">
-        <v>5.47176207904559</v>
+        <v>76.55958349728317</v>
       </c>
       <c r="G16" t="n">
-        <v>55.72441237159521</v>
+        <v>126.8122337898328</v>
       </c>
       <c r="H16" t="n">
-        <v>55.72441237159521</v>
+        <v>126.8122337898328</v>
       </c>
       <c r="I16" t="n">
-        <v>55.72441237159521</v>
+        <v>194.525289518022</v>
       </c>
       <c r="J16" t="n">
-        <v>55.72441237159521</v>
+        <v>194.525289518022</v>
       </c>
       <c r="K16" t="n">
-        <v>55.72441237159521</v>
+        <v>194.525289518022</v>
       </c>
       <c r="L16" t="n">
-        <v>55.72441237159521</v>
+        <v>194.525289518022</v>
       </c>
       <c r="M16" t="n">
-        <v>123.4374680997844</v>
+        <v>194.525289518022</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.525289518022</v>
       </c>
       <c r="O16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.525289518022</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.525289518022</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.525289518022</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180218</v>
+        <v>194.525289518022</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751571</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297648</v>
+        <v>184.976017829765</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693361</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395424</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617203</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537548</v>
+        <v>5.773428652537586</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278991</v>
+        <v>183.0075687278998</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3863781436687</v>
+        <v>166.3863781436695</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345334</v>
+        <v>160.2504026345343</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832881</v>
+        <v>127.333312983289</v>
       </c>
       <c r="F17" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673681</v>
       </c>
       <c r="G17" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H17" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I17" t="n">
-        <v>73.18481780723477</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J17" t="n">
-        <v>73.18481780723477</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K17" t="n">
-        <v>73.18481780723477</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L17" t="n">
-        <v>73.18481780723477</v>
+        <v>73.18481780723489</v>
       </c>
       <c r="M17" t="n">
-        <v>73.18481780723477</v>
+        <v>73.18481780723489</v>
       </c>
       <c r="N17" t="n">
-        <v>73.18481780723477</v>
+        <v>73.18481780723489</v>
       </c>
       <c r="O17" t="n">
-        <v>140.8978735354239</v>
+        <v>73.18481780723489</v>
       </c>
       <c r="P17" t="n">
-        <v>140.8978735354239</v>
+        <v>73.18481780723489</v>
       </c>
       <c r="Q17" t="n">
-        <v>184.0981217008354</v>
+        <v>140.8978735354242</v>
       </c>
       <c r="R17" t="n">
-        <v>184.0981217008354</v>
+        <v>140.8978735354242</v>
       </c>
       <c r="S17" t="n">
-        <v>251.8111774290246</v>
+        <v>205.8750482240906</v>
       </c>
       <c r="T17" t="n">
-        <v>251.8111774290246</v>
+        <v>205.8750482240906</v>
       </c>
       <c r="U17" t="n">
-        <v>251.8111774290246</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="V17" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="W17" t="n">
-        <v>273.5881039522795</v>
+        <v>273.58810395228</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152949</v>
+        <v>253.0512533152954</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994551</v>
+        <v>216.5290767994558</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.47176207904559</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y19" t="n">
-        <v>273.5881039522795</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278993</v>
+        <v>183.0075687278996</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436688</v>
+        <v>166.3863781436693</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345338</v>
+        <v>160.250402634534</v>
       </c>
       <c r="E20" t="n">
-        <v>127.3333129832884</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673681</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="I20" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="J20" t="n">
-        <v>48.67201024445708</v>
+        <v>70.44893676771207</v>
       </c>
       <c r="K20" t="n">
-        <v>48.67201024445708</v>
+        <v>138.1619924959014</v>
       </c>
       <c r="L20" t="n">
-        <v>48.67201024445708</v>
+        <v>138.1619924959014</v>
       </c>
       <c r="M20" t="n">
-        <v>48.67201024445708</v>
+        <v>205.8750482240906</v>
       </c>
       <c r="N20" t="n">
-        <v>48.67201024445708</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="O20" t="n">
-        <v>48.67201024445708</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="P20" t="n">
-        <v>48.67201024445708</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.67201024445708</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="R20" t="n">
-        <v>116.3850659726463</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="S20" t="n">
-        <v>116.3850659726463</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="T20" t="n">
-        <v>184.0981217008355</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="U20" t="n">
-        <v>251.8111774290246</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="V20" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522795</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="X20" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152953</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994553</v>
+        <v>216.5290767994557</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045591</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="23">
@@ -5990,37 +5990,37 @@
         <v>89.96361064580667</v>
       </c>
       <c r="K23" t="n">
-        <v>89.96361064580667</v>
+        <v>157.676666373996</v>
       </c>
       <c r="L23" t="n">
-        <v>89.96361064580667</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="M23" t="n">
-        <v>89.96361064580667</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="N23" t="n">
-        <v>89.96361064580667</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="O23" t="n">
-        <v>89.96361064580667</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="P23" t="n">
-        <v>89.96361064580667</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.96361064580667</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="R23" t="n">
-        <v>89.96361064580667</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="S23" t="n">
-        <v>157.676666373996</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8750482240907</v>
+        <v>184.0981217008358</v>
       </c>
       <c r="U23" t="n">
-        <v>273.58810395228</v>
+        <v>251.8111774290251</v>
       </c>
       <c r="V23" t="n">
         <v>273.58810395228</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923728</v>
+        <v>980.0203689923733</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847834</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522887</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776837</v>
       </c>
       <c r="F26" t="n">
         <v>343.7160714977722</v>
@@ -6221,31 +6221,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034309</v>
       </c>
       <c r="J26" t="n">
-        <v>34.66464650085356</v>
+        <v>104.0764446497857</v>
       </c>
       <c r="K26" t="n">
-        <v>34.66464650085356</v>
+        <v>500.2772759974742</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48996123636002</v>
+        <v>772.32161012957</v>
       </c>
       <c r="M26" t="n">
-        <v>524.4649616844229</v>
+        <v>1012.852400200178</v>
       </c>
       <c r="N26" t="n">
-        <v>618.4134564170153</v>
+        <v>1088.906013270722</v>
       </c>
       <c r="O26" t="n">
-        <v>1047.388456865078</v>
+        <v>1159.913044996521</v>
       </c>
       <c r="P26" t="n">
-        <v>1437.736779645827</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="Q26" t="n">
-        <v>1708.184261141055</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R26" t="n">
         <v>1708.184261141055</v>
@@ -6260,16 +6260,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V26" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W26" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X26" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y26" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="27">
@@ -6285,61 +6285,61 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="E27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="F27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="G27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="H27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="I27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="J27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="K27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="L27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="R27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="S27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U27" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V27" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W27" t="n">
         <v>34.66464650085356</v>
@@ -6358,70 +6358,70 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C28" t="n">
-        <v>128.3285387322949</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="D28" t="n">
-        <v>128.3285387322949</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="E28" t="n">
-        <v>128.3285387322949</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="F28" t="n">
-        <v>128.3285387322949</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="G28" t="n">
-        <v>128.3285387322949</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="H28" t="n">
-        <v>188.8745707431191</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="I28" t="n">
-        <v>188.8745707431191</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8745707431191</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="K28" t="n">
-        <v>188.8745707431191</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="L28" t="n">
-        <v>188.8745707431191</v>
+        <v>87.80642620351753</v>
       </c>
       <c r="M28" t="n">
-        <v>210.0320876678294</v>
+        <v>203.5224038619173</v>
       </c>
       <c r="N28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="P28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="Q28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="S28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="T28" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U28" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V28" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W28" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X28" t="n">
         <v>34.66464650085356</v>
@@ -6461,31 +6461,31 @@
         <v>67.29938996034312</v>
       </c>
       <c r="J29" t="n">
-        <v>148.7795367731729</v>
+        <v>135.0248825625404</v>
       </c>
       <c r="K29" t="n">
-        <v>326.1754010163071</v>
+        <v>531.2257139102289</v>
       </c>
       <c r="L29" t="n">
-        <v>755.1504014643699</v>
+        <v>878.4100702947532</v>
       </c>
       <c r="M29" t="n">
-        <v>1073.064434375813</v>
+        <v>952.3099362265305</v>
       </c>
       <c r="N29" t="n">
-        <v>1502.039434823876</v>
+        <v>1028.363549297075</v>
       </c>
       <c r="O29" t="n">
-        <v>1573.046466549674</v>
+        <v>1272.637480546441</v>
       </c>
       <c r="P29" t="n">
-        <v>1573.046466549674</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q29" t="n">
-        <v>1627.157398790682</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R29" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6558,13 +6558,13 @@
         <v>34.66464650085356</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="S30" t="n">
         <v>78.59820166294284</v>
@@ -6601,40 +6601,40 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D31" t="n">
-        <v>34.66464650085356</v>
+        <v>105.9541027560337</v>
       </c>
       <c r="E31" t="n">
-        <v>34.66464650085356</v>
+        <v>179.2541919291209</v>
       </c>
       <c r="F31" t="n">
-        <v>34.66464650085356</v>
+        <v>179.2541919291209</v>
       </c>
       <c r="G31" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="H31" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="I31" t="n">
-        <v>107.1976275452858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="J31" t="n">
-        <v>107.1976275452858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="K31" t="n">
-        <v>107.1976275452858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="L31" t="n">
-        <v>107.1976275452858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="M31" t="n">
-        <v>107.1976275452858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="N31" t="n">
-        <v>107.1976275452858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="O31" t="n">
-        <v>107.1976275452858</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="P31" t="n">
         <v>210.0320876678294</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923725</v>
+        <v>980.0203689923732</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847825</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522878</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776828</v>
+        <v>531.8764201776835</v>
       </c>
       <c r="F32" t="n">
-        <v>343.7160714977715</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G32" t="n">
         <v>148.3684072267213</v>
@@ -6695,34 +6695,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J32" t="n">
-        <v>290.2466682948505</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="K32" t="n">
-        <v>352.7073828592677</v>
+        <v>719.0822431020285</v>
       </c>
       <c r="L32" t="n">
-        <v>352.7073828592677</v>
+        <v>991.1265772341244</v>
       </c>
       <c r="M32" t="n">
-        <v>426.607248791045</v>
+        <v>1053.870007312494</v>
       </c>
       <c r="N32" t="n">
-        <v>855.5822492391078</v>
+        <v>1129.923620383039</v>
       </c>
       <c r="O32" t="n">
-        <v>1284.55724968717</v>
+        <v>1558.898620831102</v>
       </c>
       <c r="P32" t="n">
-        <v>1643.176510301231</v>
+        <v>1617.922993678492</v>
       </c>
       <c r="Q32" t="n">
-        <v>1694.819024691905</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R32" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S32" t="n">
         <v>1733.232325042678</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W32" t="n">
         <v>1463.070597286832</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626487</v>
+        <v>1311.710515626488</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087288</v>
+        <v>1144.365108087289</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294293</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246771</v>
+        <v>74.93519318246766</v>
       </c>
       <c r="V33" t="n">
-        <v>63.93154393779443</v>
+        <v>63.9315439377944</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6832,70 +6832,70 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="C34" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="D34" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="E34" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="F34" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="G34" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="H34" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="I34" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="J34" t="n">
-        <v>34.66464650085356</v>
+        <v>94.31611000942964</v>
       </c>
       <c r="K34" t="n">
-        <v>34.66464650085356</v>
+        <v>94.31611000942964</v>
       </c>
       <c r="L34" t="n">
-        <v>34.66464650085356</v>
+        <v>94.31611000942964</v>
       </c>
       <c r="M34" t="n">
-        <v>34.66464650085356</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="N34" t="n">
-        <v>100.2436934660115</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="O34" t="n">
-        <v>100.2436934660115</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="P34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678295</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="T34" t="n">
-        <v>203.5032181935661</v>
+        <v>203.503218193566</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042659</v>
+        <v>137.8201344042658</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300128</v>
+        <v>105.5764649300127</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335929</v>
+        <v>39.84165826335926</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585568</v>
       </c>
       <c r="D35" t="n">
         <v>600.7728648154982</v>
@@ -6926,40 +6926,40 @@
         <v>293.5582524398542</v>
       </c>
       <c r="G35" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I35" t="n">
-        <v>29.19288442180797</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J35" t="n">
-        <v>29.19288442180797</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K35" t="n">
-        <v>113.5520012087215</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L35" t="n">
-        <v>405.0995974216931</v>
+        <v>354.1874128840366</v>
       </c>
       <c r="M35" t="n">
-        <v>766.3615421415667</v>
+        <v>704.7334193224776</v>
       </c>
       <c r="N35" t="n">
-        <v>864.3135574346078</v>
+        <v>802.6854346155187</v>
       </c>
       <c r="O35" t="n">
-        <v>957.2189913829021</v>
+        <v>895.590868563813</v>
       </c>
       <c r="P35" t="n">
-        <v>1038.141766452788</v>
+        <v>1189.079654935004</v>
       </c>
       <c r="Q35" t="n">
-        <v>1330.487650170513</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R35" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
         <v>1437.745818867902</v>
@@ -6974,13 +6974,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.49214658219</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J37" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767102</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585564</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D38" t="n">
         <v>600.7728648154978</v>
@@ -7160,43 +7160,43 @@
         <v>459.375572630329</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398537</v>
+        <v>293.5582524398538</v>
       </c>
       <c r="G38" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I38" t="n">
-        <v>29.19288442180797</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J38" t="n">
-        <v>132.5714334571342</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K38" t="n">
-        <v>132.5714334571342</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L38" t="n">
-        <v>493.8333781770078</v>
+        <v>354.1874128840366</v>
       </c>
       <c r="M38" t="n">
-        <v>855.0953228968814</v>
+        <v>449.9856810383103</v>
       </c>
       <c r="N38" t="n">
-        <v>953.0473381899225</v>
+        <v>547.9376963313514</v>
       </c>
       <c r="O38" t="n">
-        <v>1236.130208339609</v>
+        <v>640.8431302796457</v>
       </c>
       <c r="P38" t="n">
-        <v>1317.052983409496</v>
+        <v>972.7668186975029</v>
       </c>
       <c r="Q38" t="n">
-        <v>1390.799352743783</v>
+        <v>1265.112702415228</v>
       </c>
       <c r="R38" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
         <v>1437.745818867902</v>
@@ -7211,13 +7211,13 @@
         <v>1364.991781336784</v>
       </c>
       <c r="W38" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X38" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821895</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="H39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="N39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="O39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P40" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T40" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U40" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V40" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767108</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.389042858557</v>
+        <v>715.3890428585568</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154985</v>
+        <v>600.7728648154982</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303293</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G41" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I41" t="n">
         <v>83.7260301037939</v>
       </c>
       <c r="J41" t="n">
-        <v>187.1045791391201</v>
+        <v>359.4809271681661</v>
       </c>
       <c r="K41" t="n">
-        <v>507.0364587986166</v>
+        <v>536.8767914113002</v>
       </c>
       <c r="L41" t="n">
-        <v>589.7601757566194</v>
+        <v>619.600508369303</v>
       </c>
       <c r="M41" t="n">
-        <v>685.5584439108932</v>
+        <v>766.3615421415665</v>
       </c>
       <c r="N41" t="n">
-        <v>685.5584439108932</v>
+        <v>864.3135574346076</v>
       </c>
       <c r="O41" t="n">
-        <v>1046.820388630767</v>
+        <v>957.2189913829019</v>
       </c>
       <c r="P41" t="n">
-        <v>1127.743163700653</v>
+        <v>1038.141766452788</v>
       </c>
       <c r="Q41" t="n">
         <v>1330.487650170513</v>
       </c>
       <c r="R41" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S41" t="n">
         <v>1437.745818867902</v>
@@ -7454,7 +7454,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821902</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="H42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="I42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="J42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="K42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C43" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D43" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E43" t="n">
-        <v>1458.210238024084</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F43" t="n">
-        <v>1459.644221090398</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G43" t="n">
-        <v>1459.644221090398</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H43" t="n">
-        <v>1459.644221090398</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I43" t="n">
-        <v>1459.644221090398</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J43" t="n">
-        <v>1459.644221090398</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K43" t="n">
-        <v>1459.644221090398</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L43" t="n">
-        <v>1459.644221090398</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M43" t="n">
-        <v>1459.644221090398</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="N43" t="n">
-        <v>1459.644221090398</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O43" t="n">
-        <v>1459.644221090398</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P43" t="n">
-        <v>1459.644221090398</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q43" t="n">
-        <v>1459.644221090398</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R43" t="n">
-        <v>1459.644221090398</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S43" t="n">
-        <v>1459.644221090398</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T43" t="n">
-        <v>1459.644221090398</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.304165790534</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V43" t="n">
-        <v>1406.403524805718</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y43" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154985</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303292</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G44" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I44" t="n">
         <v>83.7260301037939</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0300655913851</v>
+        <v>361.2064541202873</v>
       </c>
       <c r="K44" t="n">
-        <v>360.3891823782987</v>
+        <v>445.5655709072009</v>
       </c>
       <c r="L44" t="n">
-        <v>360.3891823782987</v>
+        <v>602.9016480860702</v>
       </c>
       <c r="M44" t="n">
-        <v>721.6511270981723</v>
+        <v>698.6999162403439</v>
       </c>
       <c r="N44" t="n">
-        <v>1082.913071818046</v>
+        <v>796.651931533385</v>
       </c>
       <c r="O44" t="n">
-        <v>1175.81850576634</v>
+        <v>889.5573654816793</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.741280836226</v>
+        <v>970.4801405515657</v>
       </c>
       <c r="Q44" t="n">
-        <v>1330.487650170513</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R44" t="n">
-        <v>1390.799352743783</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
         <v>1437.745818867902</v>
@@ -7691,7 +7691,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821901</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="F45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="G45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="H45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="I45" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="J45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R46" t="n">
-        <v>125.8253588837062</v>
+        <v>107.1337066978524</v>
       </c>
       <c r="S46" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329354</v>
       </c>
       <c r="T46" t="n">
         <v>125.8253588837062</v>
@@ -7843,13 +7843,13 @@
         <v>72.58466259902526</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180797</v>
+        <v>29.19288442180796</v>
       </c>
     </row>
   </sheetData>
@@ -8696,22 +8696,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634111</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P11" t="n">
-        <v>29.98041610524275</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>32.1608068298583</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>26.14819967606773</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>79.65527369999467</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333817</v>
+        <v>95.0373932303382</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>138.7119396886106</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>90.21574673180933</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M26" t="n">
-        <v>358.661752036652</v>
+        <v>168.3140647866974</v>
       </c>
       <c r="N26" t="n">
-        <v>18.07563804247238</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>361.5838067901665</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>53.9259966095762</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681481</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>371.8683694066225</v>
+        <v>289.25155722123</v>
       </c>
       <c r="M29" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>379.8739328636705</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.285823362846173</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,16 +10197,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>144.4758929331684</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>193.4247428080564</v>
       </c>
       <c r="N32" t="n">
-        <v>356.4862498762809</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>396.0321885132552</v>
+        <v>361.5838067901665</v>
       </c>
       <c r="P32" t="n">
-        <v>302.6210987542127</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>210.9332113686552</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>292.8927980254805</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>214.7131427285902</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10747,10 +10747,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>93.91583427681481</v>
@@ -10826,25 +10826,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>268.1451278440403</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>192.0984204054471</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>253.5362761090614</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
-        <v>34.76700699277724</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10981,22 +10981,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O40" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068043</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11066,19 +11066,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.47754102827244</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>271.0671825975548</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.3011284197711</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175246</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11218,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>89.82372368915655</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>75.36602042511755</v>
       </c>
       <c r="M44" t="n">
-        <v>268.1451278440404</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.4282238851379</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>64.68746442906657</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>66.06942948955182</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>85.11220969290977</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11464,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681481</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.86936004331396</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
         <v>148.5350717189314</v>
@@ -23264,16 +23264,16 @@
         <v>138.1547087945872</v>
       </c>
       <c r="E11" t="n">
-        <v>164.6680117952762</v>
+        <v>106.9890056324017</v>
       </c>
       <c r="F11" t="n">
-        <v>128.5997390302378</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676878</v>
+        <v>127.5622559676877</v>
       </c>
       <c r="H11" t="n">
-        <v>115.1318174460264</v>
+        <v>115.1318174460265</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748824</v>
+        <v>32.99210285748827</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625081</v>
+        <v>41.68617157443819</v>
       </c>
       <c r="W11" t="n">
         <v>132.0800930405434</v>
       </c>
       <c r="X11" t="n">
-        <v>152.4115751711582</v>
+        <v>84.01454918308822</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.84002180315473</v>
+        <v>168.2370477912246</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>105.0222855410919</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5350717189314</v>
+        <v>148.5350717189315</v>
       </c>
       <c r="D14" t="n">
         <v>138.1547087945872</v>
@@ -23507,10 +23507,10 @@
         <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>127.5622559676878</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H14" t="n">
-        <v>46.7347914579566</v>
+        <v>46.73479145795652</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.56509432741744</v>
+        <v>2.565094327417468</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748828</v>
+        <v>32.9921028574883</v>
       </c>
       <c r="V14" t="n">
-        <v>110.0831975625082</v>
+        <v>41.68617157443822</v>
       </c>
       <c r="W14" t="n">
         <v>132.0800930405434</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711582</v>
+        <v>92.16747468086621</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.84002180315476</v>
+        <v>99.84002180315467</v>
       </c>
     </row>
     <row r="15">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.715789672031322e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1301821.293606232</v>
+        <v>1301821.293606233</v>
       </c>
     </row>
     <row r="12">
@@ -26314,10 +26314,10 @@
         <v>203039.0944389351</v>
       </c>
       <c r="C2" t="n">
-        <v>203039.0944389352</v>
+        <v>203039.0944389351</v>
       </c>
       <c r="D2" t="n">
-        <v>203039.0944389352</v>
+        <v>203039.0944389351</v>
       </c>
       <c r="E2" t="n">
         <v>174634.9404675234</v>
@@ -26329,13 +26329,13 @@
         <v>203479.8521537341</v>
       </c>
       <c r="H2" t="n">
-        <v>203479.8521537341</v>
+        <v>203479.8521537342</v>
       </c>
       <c r="I2" t="n">
-        <v>203479.852153734</v>
+        <v>203479.8521537342</v>
       </c>
       <c r="J2" t="n">
-        <v>203479.8521537341</v>
+        <v>203479.8521537342</v>
       </c>
       <c r="K2" t="n">
         <v>203479.8521537342</v>
@@ -26344,7 +26344,7 @@
         <v>203479.8521537342</v>
       </c>
       <c r="M2" t="n">
-        <v>203479.8521537342</v>
+        <v>203479.8521537341</v>
       </c>
       <c r="N2" t="n">
         <v>203479.8521537342</v>
@@ -26353,7 +26353,7 @@
         <v>203479.8521537342</v>
       </c>
       <c r="P2" t="n">
-        <v>203479.8521537341</v>
+        <v>203479.8521537342</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039992</v>
+        <v>284205.3843039993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.0201975082</v>
+        <v>71148.02019750814</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26448,7 +26448,7 @@
         <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613772</v>
+        <v>431062.8369613773</v>
       </c>
       <c r="N4" t="n">
         <v>431062.8369613772</v>
@@ -26482,10 +26482,10 @@
         <v>24939.02968325745</v>
       </c>
       <c r="G5" t="n">
-        <v>36042.87102508289</v>
+        <v>36042.8710250829</v>
       </c>
       <c r="H5" t="n">
-        <v>36042.87102508289</v>
+        <v>36042.8710250829</v>
       </c>
       <c r="I5" t="n">
         <v>36042.8710250829</v>
@@ -26506,10 +26506,10 @@
         <v>45042.30008022613</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294140.6261967565</v>
+        <v>-294145.0337739045</v>
       </c>
       <c r="C6" t="n">
-        <v>-294140.6261967564</v>
+        <v>-294145.0337739045</v>
       </c>
       <c r="D6" t="n">
-        <v>-294140.6261967564</v>
+        <v>-294145.0337739045</v>
       </c>
       <c r="E6" t="n">
-        <v>-495968.1495351073</v>
+        <v>-496256.5986519695</v>
       </c>
       <c r="F6" t="n">
-        <v>-211762.765231108</v>
+        <v>-212051.2143479702</v>
       </c>
       <c r="G6" t="n">
         <v>-364420.5226021672</v>
       </c>
       <c r="H6" t="n">
-        <v>-258756.4481697325</v>
+        <v>-258756.4481697324</v>
       </c>
       <c r="I6" t="n">
-        <v>-258756.4481697326</v>
+        <v>-258756.4481697324</v>
       </c>
       <c r="J6" t="n">
-        <v>-445260.962292789</v>
+        <v>-445260.9622927888</v>
       </c>
       <c r="K6" t="n">
-        <v>-278636.1539495367</v>
+        <v>-278636.1539495366</v>
       </c>
       <c r="L6" t="n">
         <v>-384300.2283819714</v>
       </c>
       <c r="M6" t="n">
-        <v>-290320.9634515026</v>
+        <v>-290320.9634515027</v>
       </c>
       <c r="N6" t="n">
-        <v>-272625.2848878692</v>
+        <v>-272625.2848878691</v>
       </c>
       <c r="O6" t="n">
-        <v>-343773.3050853774</v>
+        <v>-343773.3050853773</v>
       </c>
       <c r="P6" t="n">
-        <v>-272625.2848878693</v>
+        <v>-272625.2848878691</v>
       </c>
     </row>
   </sheetData>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598806988</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="I4" t="n">
         <v>68.39702598807</v>
@@ -26820,16 +26820,16 @@
         <v>433.3080812606695</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688526</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28108,37 +28108,37 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I11" t="n">
-        <v>188.0507309546109</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
-        <v>157.9234874142799</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="L11" t="n">
-        <v>184.8271531051986</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N11" t="n">
-        <v>212.5903128911099</v>
+        <v>198.6395348082703</v>
       </c>
       <c r="O11" t="n">
-        <v>217.6878698049955</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>131.4141235484586</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Q11" t="n">
-        <v>218.4500239600112</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R11" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="S11" t="n">
-        <v>218.4500239600112</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T11" t="n">
         <v>218.4500239600112</v>
@@ -28193,10 +28193,10 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065684</v>
+        <v>121.9890800685037</v>
       </c>
       <c r="L12" t="n">
-        <v>135.5688827973804</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M12" t="n">
         <v>78.19029710175246</v>
@@ -28205,7 +28205,7 @@
         <v>66.06942948955182</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>85.11220969290977</v>
@@ -28245,28 +28245,28 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>180.0836914906838</v>
+      </c>
+      <c r="C13" t="n">
         <v>218.4500239600112</v>
       </c>
-      <c r="C13" t="n">
-        <v>167.3365529312023</v>
-      </c>
       <c r="D13" t="n">
-        <v>182.4451142656336</v>
+        <v>161.8657147625852</v>
       </c>
       <c r="E13" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>214.5560473978744</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
+        <v>167.689771139254</v>
+      </c>
+      <c r="H13" t="n">
         <v>218.4500239600112</v>
       </c>
-      <c r="H13" t="n">
-        <v>159.857510195687</v>
-      </c>
       <c r="I13" t="n">
-        <v>147.7494808688102</v>
+        <v>216.1465068568802</v>
       </c>
       <c r="J13" t="n">
         <v>109.6934180900282</v>
@@ -28275,7 +28275,7 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
         <v>104.1302923698531</v>
@@ -28284,7 +28284,7 @@
         <v>93.91583427681481</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P13" t="n">
         <v>110.1177504068043</v>
@@ -28345,28 +28345,28 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I14" t="n">
-        <v>188.0507309546109</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>207.1089656766804</v>
+        <v>207.1089656766806</v>
       </c>
       <c r="K14" t="n">
-        <v>78.26821371428522</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>64.53801320304349</v>
       </c>
       <c r="M14" t="n">
-        <v>171.6205357352282</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N14" t="n">
-        <v>144.19328690304</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>217.6878698049955</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P14" t="n">
-        <v>161.3945396537014</v>
+        <v>178.9829736408049</v>
       </c>
       <c r="Q14" t="n">
         <v>218.4500239600112</v>
@@ -28375,7 +28375,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600112</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T14" t="n">
         <v>218.4500239600112</v>
@@ -28421,7 +28421,7 @@
         <v>135.7848683666891</v>
       </c>
       <c r="H15" t="n">
-        <v>108.160635135932</v>
+        <v>160.3894919798466</v>
       </c>
       <c r="I15" t="n">
         <v>88.82825281985647</v>
@@ -28433,7 +28433,7 @@
         <v>95.90842290065684</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346591</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M15" t="n">
         <v>78.19029710175246</v>
@@ -28442,7 +28442,7 @@
         <v>66.06942948955182</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P15" t="n">
         <v>85.11220969290977</v>
@@ -28451,7 +28451,7 @@
         <v>106.0581031398714</v>
       </c>
       <c r="R15" t="n">
-        <v>179.4682720520773</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S15" t="n">
         <v>164.5345187941275</v>
@@ -28491,10 +28491,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>150.3834784055712</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>214.5560473978745</v>
       </c>
       <c r="G16" t="n">
         <v>218.4500239600112</v>
@@ -28503,7 +28503,7 @@
         <v>159.857510195687</v>
       </c>
       <c r="I16" t="n">
-        <v>147.7494808688102</v>
+        <v>216.1465068568802</v>
       </c>
       <c r="J16" t="n">
         <v>109.6934180900282</v>
@@ -28515,16 +28515,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>97.32468850918679</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O16" t="n">
         <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
-        <v>178.5147763948742</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q16" t="n">
         <v>130.9853613927381</v>
@@ -28582,7 +28582,7 @@
         <v>333.5818414060377</v>
       </c>
       <c r="I17" t="n">
-        <v>256.4477569426807</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J17" t="n">
         <v>138.7119396886106</v>
@@ -28591,7 +28591,7 @@
         <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333817</v>
+        <v>227.9724324214516</v>
       </c>
       <c r="M17" t="n">
         <v>146.3687890634111</v>
@@ -28600,28 +28600,28 @@
         <v>144.19328690304</v>
       </c>
       <c r="O17" t="n">
-        <v>217.6878698049955</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P17" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.2800486446213</v>
+        <v>237.0404603241948</v>
       </c>
       <c r="R17" t="n">
         <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
-        <v>264.1110696273946</v>
+        <v>261.3475534258565</v>
       </c>
       <c r="T17" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V17" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -28670,7 +28670,7 @@
         <v>95.90842290065684</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346591</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M18" t="n">
         <v>78.19029710175246</v>
@@ -28679,7 +28679,7 @@
         <v>66.06942948955182</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P18" t="n">
         <v>85.11220969290977</v>
@@ -28822,19 +28822,19 @@
         <v>188.0507309546109</v>
       </c>
       <c r="J20" t="n">
-        <v>165.4002784025901</v>
+        <v>187.3971738806254</v>
       </c>
       <c r="K20" t="n">
-        <v>157.9234874142799</v>
+        <v>226.3205134023499</v>
       </c>
       <c r="L20" t="n">
         <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>146.3687890634111</v>
+        <v>214.7658150514811</v>
       </c>
       <c r="N20" t="n">
-        <v>144.19328690304</v>
+        <v>212.59031289111</v>
       </c>
       <c r="O20" t="n">
         <v>149.2908438169256</v>
@@ -28846,19 +28846,19 @@
         <v>168.6434343361249</v>
       </c>
       <c r="R20" t="n">
-        <v>250.6108307898694</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S20" t="n">
         <v>195.7140436393247</v>
       </c>
       <c r="T20" t="n">
-        <v>289.4121442754985</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
-        <v>319.8391528055693</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V20" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28907,7 +28907,7 @@
         <v>95.90842290065684</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346591</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M21" t="n">
         <v>78.19029710175246</v>
@@ -28916,7 +28916,7 @@
         <v>66.06942948955182</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P21" t="n">
         <v>85.11220969290977</v>
@@ -29062,10 +29062,10 @@
         <v>207.1089656766806</v>
       </c>
       <c r="K23" t="n">
-        <v>157.9234874142799</v>
+        <v>226.3205134023499</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5754064333817</v>
+        <v>186.2637451473613</v>
       </c>
       <c r="M23" t="n">
         <v>146.3687890634111</v>
@@ -29086,16 +29086,16 @@
         <v>182.2138048017995</v>
       </c>
       <c r="S23" t="n">
-        <v>264.1110696273947</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>269.7003524794434</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
         <v>319.8391528055694</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -29144,7 +29144,7 @@
         <v>95.90842290065684</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346591</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M24" t="n">
         <v>78.19029710175246</v>
@@ -29153,7 +29153,7 @@
         <v>66.06942948955182</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P24" t="n">
         <v>85.11220969290977</v>
@@ -29293,16 +29293,16 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I26" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>67.70774068247056</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="L26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>221.0151182874286</v>
@@ -29320,7 +29320,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="R26" t="n">
-        <v>182.2138048017995</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S26" t="n">
         <v>221.0151182874286</v>
@@ -29357,7 +29357,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>190.4897520212005</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -29378,22 +29378,22 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>140.2857513472117</v>
+        <v>95.90842290065684</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346591</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>78.19029710175246</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955182</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290977</v>
+        <v>31.18621308333357</v>
       </c>
       <c r="Q27" t="n">
         <v>106.0581031398714</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221.0151182874286</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>221.0151182874286</v>
@@ -29448,13 +29448,13 @@
         <v>167.689771139254</v>
       </c>
       <c r="H28" t="n">
-        <v>221.0151182874286</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I28" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K28" t="n">
         <v>102.5727324697714</v>
@@ -29463,16 +29463,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
-        <v>125.5015215867321</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>100.491272464605</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q28" t="n">
         <v>130.9853613927381</v>
@@ -29533,25 +29533,25 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J29" t="n">
+        <v>207.1215281756785</v>
+      </c>
+      <c r="K29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N29" t="n">
-        <v>197.627435300039</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="P29" t="n">
-        <v>161.3945396537014</v>
       </c>
       <c r="Q29" t="n">
         <v>221.0151182874286</v>
@@ -29560,7 +29560,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29612,25 +29612,25 @@
         <v>88.82825281985647</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703221</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>95.90842290065684</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346591</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175246</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955182</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>129.4895381394646</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>106.0581031398714</v>
@@ -29639,7 +29639,7 @@
         <v>127.2394152081627</v>
       </c>
       <c r="S30" t="n">
-        <v>164.5345187941275</v>
+        <v>208.9118472406823</v>
       </c>
       <c r="T30" t="n">
         <v>197.4218470422748</v>
@@ -29673,34 +29673,34 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.689771139254</v>
+        <v>198.7785547137071</v>
       </c>
       <c r="H31" t="n">
         <v>159.857510195687</v>
       </c>
       <c r="I31" t="n">
-        <v>221.0151182874286</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>93.91583427681481</v>
@@ -29709,7 +29709,7 @@
         <v>106.751788516009</v>
       </c>
       <c r="P31" t="n">
-        <v>213.9909424497777</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>130.9853613927381</v>
@@ -29767,7 +29767,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="I32" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
         <v>221.0151182874286</v>
@@ -29776,28 +29776,28 @@
         <v>221.0151182874286</v>
       </c>
       <c r="L32" t="n">
-        <v>15.09951350021327</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>221.0151182874286</v>
+        <v>16.32124835471829</v>
       </c>
       <c r="N32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="O32" t="n">
-        <v>186.56673656434</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T32" t="n">
         <v>221.0151182874286</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>209.7494540568997</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -29855,7 +29855,7 @@
         <v>95.90842290065684</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346591</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M33" t="n">
         <v>78.19029710175246</v>
@@ -29864,7 +29864,7 @@
         <v>66.06942948955182</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P33" t="n">
         <v>85.11220969290977</v>
@@ -29873,7 +29873,7 @@
         <v>106.0581031398714</v>
       </c>
       <c r="R33" t="n">
-        <v>127.2394152081627</v>
+        <v>171.6167436547176</v>
       </c>
       <c r="S33" t="n">
         <v>164.5345187941275</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
@@ -29928,25 +29928,25 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6934180900282</v>
+        <v>129.0159948372996</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698531</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N34" t="n">
-        <v>160.1572958577825</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.751788516009</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>130.9853613927381</v>
@@ -30004,10 +30004,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="I35" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J35" t="n">
-        <v>138.7119396886106</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K35" t="n">
         <v>243.1347164919704</v>
@@ -30016,7 +30016,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="M35" t="n">
-        <v>218.3870463105303</v>
+        <v>32.9615894212097</v>
       </c>
       <c r="N35" t="n">
         <v>243.1347164919704</v>
@@ -30089,10 +30089,10 @@
         <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
-        <v>102.9022299183384</v>
+        <v>102.9022299183383</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346591</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M36" t="n">
         <v>78.19029710175246</v>
@@ -30101,7 +30101,7 @@
         <v>66.06942948955182</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P36" t="n">
         <v>85.11220969290977</v>
@@ -30110,7 +30110,7 @@
         <v>106.0581031398714</v>
       </c>
       <c r="R36" t="n">
-        <v>79.89687860438909</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30165,16 +30165,16 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J37" t="n">
-        <v>207.3019781525517</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5727324697714</v>
+        <v>200.1812925322949</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30241,13 +30241,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="I38" t="n">
-        <v>188.0507309546109</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J38" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="K38" t="n">
-        <v>157.9234874142799</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L38" t="n">
         <v>243.1347164919704</v>
@@ -30268,7 +30268,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R38" t="n">
-        <v>147.4467978090223</v>
+        <v>240.8249405869832</v>
       </c>
       <c r="S38" t="n">
         <v>243.1347164919704</v>
@@ -30329,22 +30329,22 @@
         <v>95.90842290065684</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346591</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>85.18410411943398</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955182</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P39" t="n">
         <v>85.11220969290977</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>127.2394152081627</v>
@@ -30368,7 +30368,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>210.6649584362675</v>
       </c>
     </row>
     <row r="40">
@@ -30405,25 +30405,25 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>201.7388524323767</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681481</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.9853613927381</v>
+        <v>228.5939214552616</v>
       </c>
       <c r="R40" t="n">
         <v>164.4066131828346</v>
@@ -30481,10 +30481,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J41" t="n">
-        <v>243.1347164919704</v>
+        <v>241.3917599746763</v>
       </c>
       <c r="K41" t="n">
-        <v>143.9757731478408</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>243.1347164919704</v>
@@ -30493,7 +30493,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N41" t="n">
-        <v>144.19328690304</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O41" t="n">
         <v>243.1347164919704</v>
@@ -30566,22 +30566,22 @@
         <v>95.90842290065684</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346591</v>
+        <v>83.3400259534659</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>78.19029710175246</v>
       </c>
       <c r="N42" t="n">
         <v>66.06942948955182</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725111</v>
+        <v>82.32375190725109</v>
       </c>
       <c r="P42" t="n">
         <v>85.11220969290977</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>127.2394152081627</v>
@@ -30624,10 +30624,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>243.1347164919704</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>147.6074891535566</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>167.689771139254</v>
@@ -30642,13 +30642,13 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>201.7388524323766</v>
       </c>
       <c r="N43" t="n">
         <v>93.91583427681481</v>
@@ -30724,13 +30724,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L44" t="n">
-        <v>159.5754064333817</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="M44" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="N44" t="n">
-        <v>84.67611829050169</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="O44" t="n">
         <v>243.1347164919704</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>172.3659326280263</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -30797,28 +30797,28 @@
         <v>88.82825281985647</v>
       </c>
       <c r="J45" t="n">
-        <v>108.1424160880036</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065684</v>
+        <v>31.22095847159029</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346591</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175246</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955182</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725111</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290977</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>127.2394152081627</v>
@@ -30876,7 +30876,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>74.7117271143959</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
         <v>102.5727324697714</v>
@@ -30888,25 +30888,25 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>93.91583427681481</v>
       </c>
       <c r="O46" t="n">
         <v>106.751788516009</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7263104693278</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.02868467987656</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R46" t="n">
-        <v>164.4066131828346</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8751278244474</v>
+        <v>222.099567152814</v>
       </c>
       <c r="T46" t="n">
-        <v>227.4786990669493</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U46" t="n">
         <v>243.1347164919704</v>
@@ -31774,16 +31774,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P11" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S11" t="n">
         <v>10.15090808421453</v>
@@ -31792,7 +31792,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J12" t="n">
         <v>22.5180769296779</v>
@@ -31844,31 +31844,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M12" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q12" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U12" t="n">
         <v>0.01568038410218507</v>
@@ -31911,10 +31911,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H13" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J13" t="n">
         <v>14.12711781338304</v>
@@ -31923,13 +31923,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M13" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O13" t="n">
         <v>28.24333647453769</v>
@@ -31941,16 +31941,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R13" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S13" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32011,16 +32011,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P14" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S14" t="n">
         <v>10.15090808421453</v>
@@ -32029,7 +32029,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J15" t="n">
         <v>22.5180769296779</v>
@@ -32081,31 +32081,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M15" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q15" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U15" t="n">
         <v>0.01568038410218507</v>
@@ -32148,10 +32148,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H16" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J16" t="n">
         <v>14.12711781338304</v>
@@ -32160,13 +32160,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M16" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O16" t="n">
         <v>28.24333647453769</v>
@@ -32178,16 +32178,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R16" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S16" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32248,16 +32248,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P17" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S17" t="n">
         <v>10.15090808421453</v>
@@ -32266,7 +32266,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J18" t="n">
         <v>22.5180769296779</v>
@@ -32318,31 +32318,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M18" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q18" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U18" t="n">
         <v>0.01568038410218507</v>
@@ -32385,10 +32385,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H19" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J19" t="n">
         <v>14.12711781338304</v>
@@ -32397,13 +32397,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M19" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O19" t="n">
         <v>28.24333647453769</v>
@@ -32415,16 +32415,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R19" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S19" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32485,16 +32485,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P20" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S20" t="n">
         <v>10.15090808421453</v>
@@ -32503,7 +32503,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J21" t="n">
         <v>22.5180769296779</v>
@@ -32555,31 +32555,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M21" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q21" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U21" t="n">
         <v>0.01568038410218507</v>
@@ -32622,10 +32622,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H22" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J22" t="n">
         <v>14.12711781338304</v>
@@ -32634,13 +32634,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M22" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O22" t="n">
         <v>28.24333647453769</v>
@@ -32652,16 +32652,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R22" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S22" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32722,16 +32722,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P23" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S23" t="n">
         <v>10.15090808421453</v>
@@ -32740,7 +32740,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J24" t="n">
         <v>22.5180769296779</v>
@@ -32792,31 +32792,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M24" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q24" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U24" t="n">
         <v>0.01568038410218507</v>
@@ -32859,10 +32859,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H25" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J25" t="n">
         <v>14.12711781338304</v>
@@ -32871,13 +32871,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M25" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O25" t="n">
         <v>28.24333647453769</v>
@@ -32889,16 +32889,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R25" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S25" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32959,16 +32959,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P26" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S26" t="n">
         <v>10.15090808421453</v>
@@ -32977,7 +32977,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J27" t="n">
         <v>22.5180769296779</v>
@@ -33029,31 +33029,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M27" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q27" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U27" t="n">
         <v>0.01568038410218507</v>
@@ -33096,10 +33096,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H28" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J28" t="n">
         <v>14.12711781338304</v>
@@ -33108,13 +33108,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M28" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O28" t="n">
         <v>28.24333647453769</v>
@@ -33126,16 +33126,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R28" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S28" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33196,16 +33196,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P29" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S29" t="n">
         <v>10.15090808421453</v>
@@ -33214,7 +33214,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J30" t="n">
         <v>22.5180769296779</v>
@@ -33266,31 +33266,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M30" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q30" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U30" t="n">
         <v>0.01568038410218507</v>
@@ -33333,10 +33333,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H31" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J31" t="n">
         <v>14.12711781338304</v>
@@ -33345,13 +33345,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M31" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O31" t="n">
         <v>28.24333647453769</v>
@@ -33363,16 +33363,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R31" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S31" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33433,16 +33433,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P32" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S32" t="n">
         <v>10.15090808421453</v>
@@ -33451,7 +33451,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J33" t="n">
         <v>22.5180769296779</v>
@@ -33503,31 +33503,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M33" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q33" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U33" t="n">
         <v>0.01568038410218507</v>
@@ -33570,10 +33570,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H34" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J34" t="n">
         <v>14.12711781338304</v>
@@ -33582,13 +33582,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M34" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O34" t="n">
         <v>28.24333647453769</v>
@@ -33600,16 +33600,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R34" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S34" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33670,16 +33670,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P35" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S35" t="n">
         <v>10.15090808421453</v>
@@ -33688,7 +33688,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J36" t="n">
         <v>22.5180769296779</v>
@@ -33740,31 +33740,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M36" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q36" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U36" t="n">
         <v>0.01568038410218507</v>
@@ -33807,10 +33807,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H37" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J37" t="n">
         <v>14.12711781338304</v>
@@ -33819,13 +33819,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M37" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O37" t="n">
         <v>28.24333647453769</v>
@@ -33837,16 +33837,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R37" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S37" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33907,16 +33907,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P38" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S38" t="n">
         <v>10.15090808421453</v>
@@ -33925,7 +33925,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J39" t="n">
         <v>22.5180769296779</v>
@@ -33977,31 +33977,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M39" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q39" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U39" t="n">
         <v>0.01568038410218507</v>
@@ -34044,10 +34044,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H40" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J40" t="n">
         <v>14.12711781338304</v>
@@ -34056,13 +34056,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M40" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O40" t="n">
         <v>28.24333647453769</v>
@@ -34074,16 +34074,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R40" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S40" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34144,16 +34144,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P41" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S41" t="n">
         <v>10.15090808421453</v>
@@ -34162,7 +34162,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J42" t="n">
         <v>22.5180769296779</v>
@@ -34214,31 +34214,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M42" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q42" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U42" t="n">
         <v>0.01568038410218507</v>
@@ -34281,10 +34281,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H43" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J43" t="n">
         <v>14.12711781338304</v>
@@ -34293,13 +34293,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M43" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O43" t="n">
         <v>28.24333647453769</v>
@@ -34311,16 +34311,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R43" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S43" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34381,16 +34381,16 @@
         <v>79.48445010363618</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921891</v>
+        <v>75.05491231921893</v>
       </c>
       <c r="P44" t="n">
         <v>64.05763120768644</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146338</v>
+        <v>48.10461329146339</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697931</v>
+        <v>27.98209456697932</v>
       </c>
       <c r="S44" t="n">
         <v>10.15090808421453</v>
@@ -34399,7 +34399,7 @@
         <v>1.949998908991732</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496595</v>
+        <v>0.03563675904496596</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>2.301880386200768</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143518</v>
+        <v>8.206067680143519</v>
       </c>
       <c r="J45" t="n">
         <v>22.5180769296779</v>
@@ -34451,31 +34451,31 @@
         <v>38.48698009934317</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191144</v>
+        <v>51.75049433191145</v>
       </c>
       <c r="M45" t="n">
-        <v>60.3903859722154</v>
+        <v>60.39038597221541</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169814</v>
+        <v>61.98873979169815</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608221</v>
+        <v>56.70758642608222</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606222</v>
+        <v>45.51283753606223</v>
       </c>
       <c r="Q45" t="n">
         <v>30.42412659399961</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670212</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516913</v>
+        <v>4.427095111516914</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938713</v>
+        <v>0.9606848659938714</v>
       </c>
       <c r="U45" t="n">
         <v>0.01568038410218507</v>
@@ -34518,10 +34518,10 @@
         <v>0.1998177908540741</v>
       </c>
       <c r="H46" t="n">
-        <v>1.77656181322986</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593431</v>
+        <v>6.009065928593432</v>
       </c>
       <c r="J46" t="n">
         <v>14.12711781338304</v>
@@ -34530,13 +34530,13 @@
         <v>23.21519424650061</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388662</v>
+        <v>29.70745592388663</v>
       </c>
       <c r="M46" t="n">
         <v>31.32234697906182</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678756</v>
+        <v>30.57757157678757</v>
       </c>
       <c r="O46" t="n">
         <v>28.24333647453769</v>
@@ -34548,16 +34548,16 @@
         <v>16.73201519597161</v>
       </c>
       <c r="R46" t="n">
-        <v>8.98453448694773</v>
+        <v>8.984534486947732</v>
       </c>
       <c r="S46" t="n">
         <v>3.482279136975091</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583165</v>
+        <v>0.8537669245583166</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840405</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>30.39929300540031</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>60.5265365457313</v>
       </c>
       <c r="L11" t="n">
-        <v>25.251746671817</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>68.39702598806987</v>
+        <v>54.44624790523034</v>
       </c>
       <c r="O11" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>57.05548430630982</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.80658962388634</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821171</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="S11" t="n">
-        <v>22.73598032068651</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>52.22885684391456</v>
       </c>
       <c r="L12" t="n">
-        <v>52.22885684391446</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35541,28 +35541,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.3663324693274</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>51.11347102880885</v>
       </c>
       <c r="D13" t="n">
-        <v>33.43954775111425</v>
+        <v>12.86014824806587</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.76025282075722</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>58.59251376432421</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35641,10 +35641,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>30.39929300540028</v>
       </c>
       <c r="J14" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,25 +35653,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>25.25174667181708</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>68.39702598806987</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>17.58843398710357</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388631</v>
+        <v>49.80658962388629</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821168</v>
+        <v>36.23621915821165</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068648</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35717,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>52.22885684391464</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35787,19 +35787,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.408854232372004</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="G16" t="n">
-        <v>50.7602528207572</v>
+        <v>50.76025282075717</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35811,16 +35811,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.408854232371984</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,28 +35896,28 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>68.39702598806987</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.63661430849643</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.39702598806987</v>
+        <v>65.63350978653177</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="V17" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>26.68833871397953</v>
+        <v>48.68523419201486</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806988</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>68.39702598807</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>68.39702598807</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>26.68833871397963</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.39702598807</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>48.68523419201485</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>68.39702598807</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>32.96438733281771</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>37.14854009034612</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L26" t="n">
-        <v>61.43971185404693</v>
+        <v>274.7922566990867</v>
       </c>
       <c r="M26" t="n">
-        <v>433.3080812606695</v>
+        <v>242.9603940107149</v>
       </c>
       <c r="N26" t="n">
-        <v>94.89746942686101</v>
+        <v>76.8218313843886</v>
       </c>
       <c r="O26" t="n">
-        <v>433.3080812606695</v>
+        <v>71.72427447050295</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2912351320692</v>
+        <v>394.2912351320691</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.1792742376046</v>
+        <v>52.37168395130372</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
-        <v>25.30107464810391</v>
+        <v>25.30107464810388</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36653,7 +36653,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36726,10 +36726,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.9314267967448</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>53.67856535622627</v>
+        <v>53.67856535622624</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36744,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>61.15760809174164</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>21.37122921687904</v>
+        <v>116.8848259175755</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>6.575438187790162</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36829,34 +36829,34 @@
         <v>32.96438733281774</v>
       </c>
       <c r="J29" t="n">
-        <v>82.30317859881801</v>
+        <v>68.40958848706792</v>
       </c>
       <c r="K29" t="n">
-        <v>179.1877416597315</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L29" t="n">
-        <v>433.3080812606695</v>
+        <v>350.691269075277</v>
       </c>
       <c r="M29" t="n">
-        <v>321.1252857691347</v>
+        <v>74.64632922401749</v>
       </c>
       <c r="N29" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438863</v>
       </c>
       <c r="O29" t="n">
-        <v>71.72427447050296</v>
+        <v>246.7413446963295</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>59.62057863372725</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.65750731414991</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R29" t="n">
         <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36926,16 +36926,16 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>44.37732844655483</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36969,22 +36969,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>72.00955177290925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>74.04049411422943</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>31.08878357445307</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>73.26563741861841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>103.8731920429734</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.96438733281774</v>
       </c>
       <c r="J32" t="n">
         <v>258.1636583777747</v>
       </c>
       <c r="K32" t="n">
-        <v>63.0916308731487</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>274.7922566990867</v>
       </c>
       <c r="M32" t="n">
-        <v>74.64632922401746</v>
+        <v>63.37720209936365</v>
       </c>
       <c r="N32" t="n">
-        <v>433.3080812606695</v>
+        <v>76.82183138438863</v>
       </c>
       <c r="O32" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="P32" t="n">
-        <v>362.2416773879399</v>
+        <v>59.62057863372725</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.164155950176</v>
+        <v>52.37168395130374</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562908</v>
+        <v>38.80131348562911</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>25.30107464810391</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37121,7 +37121,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44.37732844655492</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.9314267967448</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>19.32257674727144</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.8848259175755</v>
       </c>
       <c r="N34" t="n">
-        <v>66.24146158096765</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>110.8973678806242</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K35" t="n">
-        <v>85.21122907769049</v>
+        <v>85.21122907769053</v>
       </c>
       <c r="L35" t="n">
-        <v>294.492521427244</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M35" t="n">
-        <v>364.9110552725996</v>
+        <v>354.0868751903444</v>
       </c>
       <c r="N35" t="n">
-        <v>98.9414295889304</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O35" t="n">
-        <v>93.84387267504474</v>
+        <v>93.84387267504478</v>
       </c>
       <c r="P35" t="n">
-        <v>81.74017683826902</v>
+        <v>296.4533195668592</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.2988724421464</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R35" t="n">
-        <v>60.92091169017088</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>6.993807017681523</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>55.08398553735954</v>
       </c>
       <c r="J38" t="n">
         <v>104.4227768033598</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>85.21122907769053</v>
       </c>
       <c r="L38" t="n">
-        <v>364.9110552725996</v>
+        <v>83.55931005858874</v>
       </c>
       <c r="M38" t="n">
-        <v>364.9110552725996</v>
+        <v>96.76592742855929</v>
       </c>
       <c r="N38" t="n">
-        <v>98.9414295889304</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O38" t="n">
-        <v>285.9422930804919</v>
+        <v>93.84387267504478</v>
       </c>
       <c r="P38" t="n">
-        <v>81.74017683826902</v>
+        <v>335.2764529473305</v>
       </c>
       <c r="Q38" t="n">
-        <v>74.49128215584551</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>126.9562124530855</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264568</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>6.993807017681523</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37664,7 +37664,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
     </row>
     <row r="40">
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>97.60856006252358</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>55.08398553735954</v>
       </c>
       <c r="J41" t="n">
-        <v>104.4227768033598</v>
+        <v>278.5403000650224</v>
       </c>
       <c r="K41" t="n">
-        <v>323.1635148075722</v>
+        <v>179.1877416597315</v>
       </c>
       <c r="L41" t="n">
         <v>83.55931005858874</v>
       </c>
       <c r="M41" t="n">
-        <v>96.76592742855929</v>
+        <v>148.2434684568317</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O41" t="n">
-        <v>364.9110552725996</v>
+        <v>93.84387267504478</v>
       </c>
       <c r="P41" t="n">
         <v>81.74017683826905</v>
       </c>
       <c r="Q41" t="n">
-        <v>204.7924105756167</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R41" t="n">
         <v>60.92091169017091</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>6.993807017681495</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37920,10 +37920,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>96.16009231877123</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.448467743752089</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>97.60856006252351</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>55.08398553735954</v>
       </c>
       <c r="J44" t="n">
-        <v>194.2465004925164</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K44" t="n">
-        <v>85.21122907769052</v>
+        <v>85.21122907769053</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>158.9253304837063</v>
       </c>
       <c r="M44" t="n">
-        <v>364.9110552725996</v>
+        <v>96.76592742855929</v>
       </c>
       <c r="N44" t="n">
-        <v>364.9110552725996</v>
+        <v>98.94142958893043</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504476</v>
+        <v>93.84387267504478</v>
       </c>
       <c r="P44" t="n">
         <v>81.74017683826905</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.49128215584554</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017091</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S44" t="n">
         <v>47.42067285264571</v>
@@ -38069,7 +38069,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.993807017681495</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38190,19 +38190,19 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>97.60856006252349</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>78.72810330913585</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.22443932836659</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>15.65601742502106</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
